--- a/target/test-classes/download.xlsx
+++ b/target/test-classes/download.xlsx
@@ -488,7 +488,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>666.0</v>
+        <v>444.0</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
